--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -46,13 +46,16 @@
   </si>
   <si>
     <t>1. Написав першу робочу версію ServiceRefresh 2.Налаштував разом з Санею К. Realm Security на проді, тепере авторизація працює і там       3.Вбив 2,5 год. щоб залити собі репозиторій, зі своїм мобільним інтернетом(знаю, сам винний, що поїхав додому)</t>
+  </si>
+  <si>
+    <t>1.Війна з ajax, який постійно і нагло викидує Ajax error 2.Розробка CSE Dashboard (його готовність на перерішній час складає 7%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,10 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -150,10 +152,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +243,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,7 +277,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -455,111 +452,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" ht="225">
+      <c r="A2" s="6">
         <v>41747</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>41748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="120">
+      <c r="A3" s="6">
+        <v>41751</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -569,24 +576,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>1.Війна з ajax, який постійно і нагло викидує Ajax error 2.Розробка CSE Dashboard (його готовність на перерішній час складає 7%)</t>
+  </si>
+  <si>
+    <t>SAD - 80%                     TracibilityMatrix - 100%   DAO - 90%                        Integration with Google Map API - 75%                   e2e сценарій - 15%        PEDashboards - 10%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -138,11 +141,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -153,6 +171,13 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -243,6 +268,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -277,6 +303,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -452,20 +479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="9" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -509,7 +537,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120">
+    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -524,49 +552,61 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
+    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>41753</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -576,24 +616,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -60,12 +60,15 @@
 PE Dashboard - 10%
 Logging (Log4j) - 90%</t>
   </si>
+  <si>
+    <t>Test-cases - 95% Registration - 0% Installation Engineer - 0%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -185,6 +188,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,7 +281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,7 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -486,14 +490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -501,7 +505,7 @@
     <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -545,7 +549,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="120">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -560,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -573,50 +577,52 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -626,24 +632,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -52,6 +52,13 @@
   </si>
   <si>
     <t>SAD - 80%                     TracibilityMatrix - 100%   DAO - 90%                        Integration with Google Map API - 75%                   e2e сценарій - 15%        PEDashboards - 10%</t>
+  </si>
+  <si>
+    <t>Reports - 85%
+Production server - 100%
+e2e scenario - 15%
+PE Dashboard - 10%
+Logging (Log4j) - 90%</t>
   </si>
 </sst>
 </file>
@@ -483,14 +490,15 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="9" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -522,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -559,7 +567,9 @@
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -46,13 +46,29 @@
   </si>
   <si>
     <t>1. Написав першу робочу версію ServiceRefresh 2.Налаштував разом з Санею К. Realm Security на проді, тепере авторизація працює і там       3.Вбив 2,5 год. щоб залити собі репозиторій, зі своїм мобільним інтернетом(знаю, сам винний, що поїхав додому)</t>
+  </si>
+  <si>
+    <t>1.Війна з ajax, який постійно і нагло викидує Ajax error 2.Розробка CSE Dashboard (його готовність на перерішній час складає 7%)</t>
+  </si>
+  <si>
+    <t>SAD - 80%                     TracibilityMatrix - 100%   DAO - 90%                        Integration with Google Map API - 75%                   e2e сценарій - 15%        PEDashboards - 10%</t>
+  </si>
+  <si>
+    <t>Reports - 85%
+Production server - 100%
+e2e scenario - 15%
+PE Dashboard - 10%
+Logging (Log4j) - 90%</t>
+  </si>
+  <si>
+    <t>Test-cases - 95% Registration - 0% Installation Engineer - 0%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -135,14 +151,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -150,10 +180,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -244,7 +281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,7 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -455,111 +490,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="9" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" ht="180">
+      <c r="A2" s="6">
         <v>41747</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>41748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="120">
+      <c r="A3" s="6">
+        <v>41751</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105">
+      <c r="A4" s="9">
+        <v>41753</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -569,24 +632,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -60,12 +60,18 @@
 PE Dashboard - 10%
 Logging (Log4j) - 90%</t>
   </si>
+  <si>
+    <t xml:space="preserve">Test Data - 99%
+E-mail - 90%
+Sequaence diagrams - 30%
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -185,6 +191,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -275,7 +284,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,7 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -486,14 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -501,7 +508,7 @@
     <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,7 +537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -545,7 +552,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="120">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -560,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -570,53 +577,55 @@
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -626,24 +635,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -61,7 +61,10 @@
 Logging (Log4j) - 90%</t>
   </si>
   <si>
-    <t>Test-cases - 95% Registration - 0% Installation Engineer - 0%</t>
+    <t xml:space="preserve">Test Data - 99%
+E-mail - 90%
+Sequaence diagrams - 30%
+</t>
   </si>
 </sst>
 </file>
@@ -189,8 +192,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -493,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,12 +577,12 @@
       <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,12 +66,15 @@
 Sequaence diagrams - 30%
 </t>
   </si>
+  <si>
+    <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,6 +287,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -318,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -493,22 +498,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.7109375" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180">
+    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -552,7 +557,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120">
+    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -567,7 +572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105">
+    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -580,52 +585,54 @@
       <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -635,24 +642,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
+  </si>
+  <si>
+    <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
 </sst>
 </file>
@@ -207,6 +210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -255,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,19 +507,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6640625" customWidth="1"/>
+    <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -557,7 +563,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -572,7 +578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -590,49 +596,51 @@
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -647,7 +655,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -659,7 +667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -72,12 +72,15 @@
   <si>
     <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> TracibilityMatrix - 100%    Use Cases  -95%     CSEdashboard - 10%      pagination - 30%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -200,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -261,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,10 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -504,14 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -519,7 +523,7 @@
     <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -563,7 +567,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="120">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -578,7 +582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="150">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -599,48 +603,50 @@
       <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -650,24 +656,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve"> TracibilityMatrix - 100%    Use Cases  -95%     CSEdashboard - 10%      pagination - 30%</t>
+  </si>
+  <si>
+    <t>Test cases - 100%      Test sequences - 80%                           Test strategy -100%</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,7 +602,9 @@
         <v>14</v>
       </c>
       <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" s="8" t="s">
         <v>15</v>
       </c>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -78,12 +78,15 @@
   <si>
     <t>Test cases - 100%      Test sequences - 80%                           Test strategy -100%</t>
   </si>
+  <si>
+    <t>e2e сценарій - 25%      DAO - 92%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -209,6 +212,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -302,6 +309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -336,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -511,14 +520,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" customWidth="1"/>
@@ -526,7 +535,7 @@
     <col min="4" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,7 +564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180">
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>41747</v>
       </c>
@@ -570,7 +579,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="120">
+    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>41751</v>
       </c>
@@ -585,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="150">
+    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>41753</v>
       </c>
@@ -612,46 +621,58 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>41754</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
   </sheetData>
@@ -661,24 +682,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="25100" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>Date</t>
   </si>
@@ -30,19 +30,19 @@
     <t>Сашко</t>
   </si>
   <si>
+    <t>Ваня</t>
+  </si>
+  <si>
     <t>Ден</t>
   </si>
   <si>
+    <t>Міша</t>
+  </si>
+  <si>
     <t>Оксана</t>
   </si>
   <si>
     <t>Аня</t>
-  </si>
-  <si>
-    <t>Ваня</t>
-  </si>
-  <si>
-    <t>Міша</t>
   </si>
   <si>
     <t>1. Написав першу робочу версію ServiceRefresh 2.Налаштував разом з Санею К. Realm Security на проді, тепере авторизація працює і там       3.Вбив 2,5 год. щоб залити собі репозиторій, зі своїм мобільним інтернетом(знаю, сам винний, що поїхав додому)</t>
@@ -70,29 +70,44 @@
     <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
   </si>
   <si>
+    <t>Test cases - 100%      Test sequences - 80%                           Test strategy -100%</t>
+  </si>
+  <si>
     <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
   <si>
     <t xml:space="preserve"> TracibilityMatrix - 100%    Use Cases  -95%     CSEdashboard - 10%      pagination - 30%</t>
   </si>
   <si>
-    <t>Test cases - 100%      Test sequences - 80%                           Test strategy -100%</t>
-  </si>
-  <si>
     <t>e2e сценарій - 25%      DAO - 92%</t>
+  </si>
+  <si>
+    <t>Reports - 90%
+Logging (Log4j) - 95%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2">
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="63"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -112,19 +127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -158,13 +160,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -184,60 +184,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="1"/>
+    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Comma[0]" xfId="6" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -275,79 +316,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,8 +518,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -514,193 +555,248 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.8518518518519" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.7109375" customWidth="1"/>
+    <col min="4" max="9" width="20.7111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+    </row>
+    <row r="2" ht="220.5" spans="1:9">
+      <c r="A2" s="3">
         <v>41747</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="141.75" spans="1:9">
+      <c r="A3" s="3">
         <v>41751</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" ht="141.75" spans="1:9">
+      <c r="A4" s="5">
         <v>41753</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" ht="31.5" spans="1:9">
+      <c r="A5" s="9">
         <v>41754</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="C5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="12"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="12"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="12"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="12"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25100" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -85,17 +85,14 @@
     <t>Reports - 90%
 Logging (Log4j) - 95%</t>
   </si>
+  <si>
+    <t>Sequaence diagrams - 55%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -207,40 +204,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
@@ -250,28 +232,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный" xfId="1"/>
-    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Comma[0]" xfId="6" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -570,6 +549,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -602,20 +582,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.8518518518519" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.7111111111111" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -647,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="220.5" spans="1:9">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -662,7 +641,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="141.75" spans="1:9">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -677,7 +656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="141.75" spans="1:9">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -704,7 +683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="31.5" spans="1:9">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -714,44 +693,46 @@
       <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:9">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7" s="12"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="12"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9">
       <c r="A9" s="12"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9">
       <c r="A10" s="12"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11" s="12"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9">
       <c r="A12" s="12"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" s="12"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14" s="12"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9">
       <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1">
@@ -761,41 +742,35 @@
       <c r="A18" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Sequaence diagrams - 55%</t>
+  </si>
+  <si>
+    <t>CSEdashboard - 12%      pagination - 32%</t>
   </si>
 </sst>
 </file>
@@ -585,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -700,7 +703,9 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="12"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -91,11 +96,14 @@
   <si>
     <t>CSEdashboard - 12%      pagination - 32%</t>
   </si>
+  <si>
+    <t>CSEdashboard - 15%      pagination - 40%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -254,6 +262,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -585,11 +601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -702,7 +718,9 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="11" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" s="11" t="s">
         <v>21</v>
       </c>
@@ -754,7 +772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -768,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -84,9 +79,6 @@
     <t xml:space="preserve"> TracibilityMatrix - 100%    Use Cases  -95%     CSEdashboard - 10%      pagination - 30%</t>
   </si>
   <si>
-    <t>e2e сценарій - 25%      DAO - 92%</t>
-  </si>
-  <si>
     <t>Reports - 90%
 Logging (Log4j) - 95%</t>
   </si>
@@ -98,6 +90,12 @@
   </si>
   <si>
     <t>CSEdashboard - 15%      pagination - 40%</t>
+  </si>
+  <si>
+    <t>e2e сценарій - 25%                    DAO - 92%</t>
+  </si>
+  <si>
+    <t>e2e сценарій - 35%                 DAO - 95%</t>
   </si>
 </sst>
 </file>
@@ -223,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -254,6 +252,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -604,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -707,26 +709,38 @@
         <v>41754</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="9">
+        <v>41755</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="25100" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve"> TracibilityMatrix - 100%    Use Cases  -95%     CSEdashboard - 10%      pagination - 30%</t>
   </si>
   <si>
+    <t>e2e сценарій - 25%                    DAO - 92%</t>
+  </si>
+  <si>
     <t>Reports - 90%
 Logging (Log4j) - 95%</t>
   </si>
@@ -86,22 +89,30 @@
     <t>Sequaence diagrams - 55%</t>
   </si>
   <si>
+    <t>CSEdashboard - 15%      pagination - 40%</t>
+  </si>
+  <si>
     <t>CSEdashboard - 12%      pagination - 32%</t>
   </si>
   <si>
-    <t>CSEdashboard - 15%      pagination - 40%</t>
-  </si>
-  <si>
-    <t>e2e сценарій - 25%                    DAO - 92%</t>
-  </si>
-  <si>
     <t>e2e сценарій - 35%                 DAO - 95%</t>
+  </si>
+  <si>
+    <t>Reports - 92%
+Logging (Log4j) - 100%
+SO e2e scenario - 35 %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -213,65 +224,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="1"/>
+    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Обычный 2" xfId="6"/>
+    <cellStyle name="Comma[0]" xfId="7" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -570,25 +592,26 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr val="739CC3"/>
+            <a:srgbClr val="739CC3">
+              <a:alpha val="100000"/>
+            </a:srgbClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="200000"/>
@@ -603,19 +626,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6640625" customWidth="1"/>
+    <col min="4" max="9" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -643,11 +667,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
+    <row r="2" ht="220.5" spans="1:9">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -662,7 +686,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" ht="141.75" spans="1:9">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -677,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105">
+    <row r="4" ht="141.75" spans="1:9">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -700,114 +724,122 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" ht="31.5" spans="1:9">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="30">
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="47.25" spans="1:9">
       <c r="A6" s="9">
         <v>41755</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="12"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="12"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="13"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25100" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
   </si>
   <si>
-    <t>Test cases - 100%      Test sequences - 80%                           Test strategy -100%</t>
-  </si>
-  <si>
     <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
   <si>
@@ -101,18 +98,21 @@
     <t>Reports - 92%
 Logging (Log4j) - 100%
 SO e2e scenario - 35 %</t>
+  </si>
+  <si>
+    <t>Test sequences - 100%</t>
+  </si>
+  <si>
+    <t>Test cases - 100%                    Test sequences - 80%                           Test strategy -100%</t>
+  </si>
+  <si>
+    <t>IEDashboard - 3%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -224,76 +224,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный" xfId="1"/>
-    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Обычный 2" xfId="6"/>
-    <cellStyle name="Comma[0]" xfId="7" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -592,6 +570,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -626,20 +605,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -671,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="220.5" spans="1:9">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -686,7 +664,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="141.75" spans="1:9">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -701,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="141.75" spans="1:9">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -719,83 +697,89 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" ht="31.5" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="47.25" spans="1:9">
+    </row>
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="9">
         <v>41755</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14" s="13"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9">
       <c r="A16" s="13"/>
     </row>
     <row r="17" spans="1:1">
@@ -805,41 +789,35 @@
       <c r="A18" s="13"/>
     </row>
   </sheetData>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -108,11 +113,14 @@
   <si>
     <t>IEDashboard - 3%</t>
   </si>
+  <si>
+    <t xml:space="preserve">CSEdashboard-20%                DAO - 95%  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -272,6 +280,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -605,11 +621,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -749,7 +765,9 @@
       <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9">
@@ -796,7 +814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -810,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -116,11 +111,14 @@
   <si>
     <t xml:space="preserve">CSEdashboard-20%                DAO - 95%  </t>
   </si>
+  <si>
+    <t>CSEdashboard - 15%      pagination &amp; paging- 40%  done problems with server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -621,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -747,7 +745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45">
+    <row r="6" spans="1:9" ht="66" customHeight="1">
       <c r="A6" s="9">
         <v>41755</v>
       </c>
@@ -768,7 +766,9 @@
       <c r="H6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13"/>
@@ -808,13 +808,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -114,11 +114,17 @@
   <si>
     <t>CSEdashboard - 15%      pagination &amp; paging- 40%  done problems with server</t>
   </si>
+  <si>
+    <t>e2e, service order creating (map)- 40%</t>
+  </si>
+  <si>
+    <t>e2e, service order creating (map)- 60%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -619,19 +625,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6640625" customWidth="1"/>
+    <col min="4" max="9" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -663,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
+    <row r="2" spans="1:9" ht="129.6">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -678,7 +684,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="86.4">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -693,7 +699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105">
+    <row r="4" spans="1:9" ht="100.8">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -720,7 +726,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -733,7 +739,9 @@
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
         <v>24</v>
@@ -758,7 +766,9 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
         <v>26</v>
@@ -814,12 +824,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -828,12 +838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -120,11 +120,14 @@
   <si>
     <t>e2e, service order creating (map)- 60%</t>
   </si>
+  <si>
+    <t xml:space="preserve">CSEdashboard - 25%      pagination &amp; paging- 60% </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -244,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -276,6 +279,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,19 +631,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6328125" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -669,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129.6">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -684,7 +690,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -699,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.8">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -726,7 +732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -780,8 +786,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="9">
+        <v>41756</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13"/>
@@ -824,12 +842,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -838,12 +856,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -123,11 +123,14 @@
   <si>
     <t xml:space="preserve">CSEdashboard - 25%      pagination &amp; paging- 60% </t>
   </si>
+  <si>
+    <t>e2e сценарій - 45%                 DAO - 95%                                          PEDashborrd - 20%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -631,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -786,11 +789,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="9">
         <v>41756</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -842,7 +847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -856,7 +861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="25100" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
   </si>
   <si>
+    <t>Test cases - 100%                    Test sequences - 80%                           Test strategy -100%</t>
+  </si>
+  <si>
     <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
   <si>
@@ -84,6 +87,12 @@
   </si>
   <si>
     <t>Sequaence diagrams - 55%</t>
+  </si>
+  <si>
+    <t>e2e, service order creating (map)- 40%</t>
+  </si>
+  <si>
+    <t>Test sequences - 100%</t>
   </si>
   <si>
     <t>CSEdashboard - 15%      pagination - 40%</t>
@@ -100,37 +109,39 @@
 SO e2e scenario - 35 %</t>
   </si>
   <si>
-    <t>Test sequences - 100%</t>
-  </si>
-  <si>
-    <t>Test cases - 100%                    Test sequences - 80%                           Test strategy -100%</t>
-  </si>
-  <si>
     <t>IEDashboard - 3%</t>
   </si>
   <si>
+    <t>e2e, service order creating (map)- 60%</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSEdashboard-20%                DAO - 95%  </t>
   </si>
   <si>
     <t>CSEdashboard - 15%      pagination &amp; paging- 40%  done problems with server</t>
   </si>
   <si>
-    <t>e2e, service order creating (map)- 40%</t>
-  </si>
-  <si>
-    <t>e2e, service order creating (map)- 60%</t>
+    <t>e2e сценарій - 45%                 DAO - 95%                                          PEDashborrd - 20%</t>
+  </si>
+  <si>
+    <t>Reports - 95%
+e2e - 45 %
+PEDashboard - 20%</t>
   </si>
   <si>
     <t xml:space="preserve">CSEdashboard - 25%      pagination &amp; paging- 60% </t>
-  </si>
-  <si>
-    <t>e2e сценарій - 45%                 DAO - 95%                                          PEDashborrd - 20%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -242,65 +253,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+  <cellStyles count="8">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="1"/>
+    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Обычный 2" xfId="6"/>
+    <cellStyle name="Comma[0]" xfId="7" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -599,7 +624,6 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -634,19 +658,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6640625" customWidth="1"/>
+    <col min="4" max="9" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -674,11 +699,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
+    <row r="2" ht="220.5" spans="1:9">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -693,7 +718,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" ht="141.75" spans="1:9">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -708,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105">
+    <row r="4" ht="141.75" spans="1:9">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -726,149 +751,157 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="30">
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="31.5" spans="1:9">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="66" customHeight="1">
+    </row>
+    <row r="6" ht="66" customHeight="1" spans="1:9">
       <c r="A6" s="9">
         <v>41755</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="47.25" spans="1:9">
       <c r="A7" s="9">
         <v>41756</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25100" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -131,18 +136,15 @@
   <si>
     <t xml:space="preserve">CSEdashboard - 25%      pagination &amp; paging- 60% </t>
   </si>
+  <si>
+    <t>CSEdashboard - 25%      pagination &amp; paging- 60%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -154,6 +156,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,79 +261,69 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="6" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный" xfId="1"/>
-    <cellStyle name="Currency[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Обычный 2" xfId="6"/>
-    <cellStyle name="Comma[0]" xfId="7" builtinId="6"/>
+  <cellStyles count="3">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -624,6 +622,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -658,20 +657,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6666666666667" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -703,7 +701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="220.5" spans="1:9">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -718,7 +716,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="141.75" spans="1:9">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -733,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="141.75" spans="1:9">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -760,7 +758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" ht="31.5" spans="1:9">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -787,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" ht="66" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="66" customHeight="1">
       <c r="A6" s="9">
         <v>41755</v>
       </c>
@@ -814,7 +812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="47.25" spans="1:9">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="9">
         <v>41756</v>
       </c>
@@ -828,36 +826,38 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="I7" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9">
       <c r="A9" s="14"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9">
       <c r="A10" s="14"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:9">
       <c r="A11" s="14"/>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:9">
       <c r="A12" s="14"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:9">
       <c r="A13" s="14"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:9">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="14"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:9">
       <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1">
@@ -867,41 +867,35 @@
       <c r="A18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -139,11 +134,17 @@
   <si>
     <t>CSEdashboard - 25%      pagination &amp; paging- 60%</t>
   </si>
+  <si>
+    <t>IEDashboard - 25%                          Registration - 1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEDashboard - 25%    </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -657,11 +658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -822,10 +823,14 @@
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
@@ -874,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -888,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -137,11 +137,17 @@
   <si>
     <t>e2e, service order creating (map)- 70%, auth and registration pop-up</t>
   </si>
+  <si>
+    <t>IEDashboard - 25%</t>
+  </si>
+  <si>
+    <t>IEDashboard - 25%         Registration - 2%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -655,19 +661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6328125" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -699,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129.6">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -714,7 +720,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -729,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.8">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -756,7 +762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -810,7 +816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="43.2">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="9">
         <v>41756</v>
       </c>
@@ -820,12 +826,16 @@
       <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="H7" s="13" t="s">
         <v>34</v>
       </c>
@@ -874,12 +884,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -888,12 +898,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oksana\Documents\NetBeansProjects\InternetProviderWind\Docs\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="12720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +133,9 @@
   </si>
   <si>
     <t>CSEdashboard - 25%      pagination &amp; paging- 60%</t>
+  </si>
+  <si>
+    <t>e2e, service order creating (map)- 70%, auth and registration pop-up</t>
   </si>
 </sst>
 </file>
@@ -660,16 +658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6640625" customWidth="1"/>
+    <col min="4" max="9" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -701,7 +699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135">
+    <row r="2" spans="1:9" ht="129.6">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -716,7 +714,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="86.4">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -731,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="105">
+    <row r="4" spans="1:9" ht="100.8">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -758,7 +756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30">
+    <row r="5" spans="1:9" ht="28.8">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
@@ -812,7 +810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45">
+    <row r="7" spans="1:9" ht="43.2">
       <c r="A7" s="9">
         <v>41756</v>
       </c>
@@ -823,7 +821,9 @@
         <v>32</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
@@ -879,7 +879,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -893,7 +893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
     <t>Изучал Google API для реализации определения оптимального Provider Location для Service Location. Сервис реализующий функционал - Distance Matrix API.</t>
   </si>
   <si>
+    <t>Test cases - 100%                    Test sequences - 80%                           Test strategy -100%</t>
+  </si>
+  <si>
     <t>DAO - 90%                     mail - 90%                     CSEdashboard - 10%    pagination - 30%(working now on it)</t>
   </si>
   <si>
@@ -84,6 +87,12 @@
   </si>
   <si>
     <t>Sequaence diagrams - 55%</t>
+  </si>
+  <si>
+    <t>e2e, service order creating (map)- 40%</t>
+  </si>
+  <si>
+    <t>Test sequences - 100%</t>
   </si>
   <si>
     <t>CSEdashboard - 15%      pagination - 40%</t>
@@ -100,32 +109,46 @@
 SO e2e scenario - 35 %</t>
   </si>
   <si>
-    <t>Test sequences - 100%</t>
-  </si>
-  <si>
-    <t>Test cases - 100%                    Test sequences - 80%                           Test strategy -100%</t>
-  </si>
-  <si>
     <t>IEDashboard - 3%</t>
   </si>
   <si>
+    <t>e2e, service order creating (map)- 60%</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSEdashboard-20%                DAO - 95%  </t>
   </si>
   <si>
     <t>CSEdashboard - 15%      pagination &amp; paging- 40%  done problems with server</t>
   </si>
   <si>
-    <t>e2e, service order creating (map)- 40%</t>
-  </si>
-  <si>
-    <t>e2e, service order creating (map)- 60%</t>
+    <t>e2e сценарій - 45%                 DAO - 95%                                          PEDashborrd - 20%</t>
+  </si>
+  <si>
+    <t>Reports - 95%
+e2e - 45 %
+PEDashboard - 20%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSEdashboard - 25%      pagination &amp; paging- 60% </t>
+  </si>
+  <si>
+    <t>CSEdashboard - 25%      pagination &amp; paging- 60%</t>
+  </si>
+  <si>
+    <t>e2e, service order creating (map)- 70%, auth and registration pop-up</t>
+  </si>
+  <si>
+    <t>IEDashboard - 25%</t>
+  </si>
+  <si>
+    <t>IEDashboard - 25%         Registration - 2%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <name val="Arial"/>
@@ -137,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,54 +265,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -625,19 +661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="9" width="20.6328125" customWidth="1"/>
+    <col min="4" max="9" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -665,11 +701,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129.6">
+    <row r="2" spans="1:9" ht="135">
       <c r="A2" s="3">
         <v>41747</v>
       </c>
@@ -684,7 +720,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="86.4">
+    <row r="3" spans="1:9" ht="90">
       <c r="A3" s="3">
         <v>41751</v>
       </c>
@@ -699,7 +735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.8">
+    <row r="4" spans="1:9" ht="105">
       <c r="A4" s="5">
         <v>41753</v>
       </c>
@@ -717,40 +753,40 @@
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8">
+      <c r="I4" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="9">
         <v>41754</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="66" customHeight="1">
@@ -758,94 +794,118 @@
         <v>41755</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" s="9">
+        <v>41756</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.69861111111111096" right="0.69861111111111096" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>IEDashboard - 25%         Registration - 2%</t>
+  </si>
+  <si>
+    <t>CSEdashboard - 27%      pagination &amp; paging- 62%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSEdashboard - 27%      pagination &amp; paging- 62% </t>
   </si>
 </sst>
 </file>
@@ -276,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -311,6 +317,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -664,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -843,8 +855,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="17">
+        <v>41757</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -149,11 +149,14 @@
   <si>
     <t xml:space="preserve">CSEdashboard - 27%      pagination &amp; paging- 62% </t>
   </si>
+  <si>
+    <t xml:space="preserve">PEDashborrd - 40%                    e2e сценарій - 50%   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -673,11 +676,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -859,7 +862,9 @@
       <c r="A8" s="17">
         <v>41757</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -910,7 +915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -924,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -152,11 +152,14 @@
   <si>
     <t xml:space="preserve">PEDashborrd - 40%                    e2e сценарій - 50%   </t>
   </si>
+  <si>
+    <t>IEDashboard - 25%         Registration - 10%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -676,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -869,7 +872,9 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
@@ -915,7 +920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -929,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -155,11 +155,20 @@
   <si>
     <t>IEDashboard - 25%         Registration - 10%</t>
   </si>
+  <si>
+    <t>CSEdashboard - 29%      pagination &amp; paging- 65%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSEdashboard - 29%      pagination &amp; paging- 66% </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;₴&quot;_-;\-* #,##0.00&quot;₴&quot;_-;_-* &quot;-&quot;??&quot;₴&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -288,7 +297,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -330,6 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -882,8 +892,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="17">
+        <v>41758</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14"/>

--- a/Docs/reports/Report.xlsx
+++ b/Docs/reports/Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -161,11 +161,14 @@
   <si>
     <t xml:space="preserve">CSEdashboard - 29%      pagination &amp; paging- 66% </t>
   </si>
+  <si>
+    <t>e2e сценарій - 55%                 DAO - 96%                                          PEDashborrd - 25%</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00&quot;₴&quot;_-;\-* #,##0.00&quot;₴&quot;_-;_-* &quot;-&quot;??&quot;₴&quot;_-;_-@_-"/>
   </numFmts>
@@ -297,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
@@ -340,6 +343,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -689,11 +695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -892,11 +898,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="1:9" ht="45">
       <c r="A9" s="17">
         <v>41758</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -944,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -958,7 +966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
